--- a/Data/Database_mtDNA_updated_2021.xlsx
+++ b/Data/Database_mtDNA_updated_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alphamanae/Documents/GitHub/varroa-mtDNA-world-distrib/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD9912-9640-F645-834B-DBCA9953806E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B3142-6601-2F47-B5D0-40E7097C8B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="7080" windowWidth="37160" windowHeight="10820" activeTab="1" xr2:uid="{27560EE2-2571-5440-86E3-74B85E500F54}"/>
+    <workbookView xWindow="37440" yWindow="1560" windowWidth="29760" windowHeight="17140" activeTab="2" xr2:uid="{27560EE2-2571-5440-86E3-74B85E500F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Comments" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17324" uniqueCount="3721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17333" uniqueCount="3725">
   <si>
     <t>AF010478</t>
   </si>
@@ -11199,6 +11199,18 @@
   </si>
   <si>
     <t>10.659444 N 77.880278 E</t>
+  </si>
+  <si>
+    <t>18.717000, 99.030504</t>
+  </si>
+  <si>
+    <t>9.471833, 99.966694</t>
+  </si>
+  <si>
+    <t>18.790331, 98.95463</t>
+  </si>
+  <si>
+    <t>7.799752, 100.009337</t>
   </si>
 </sst>
 </file>
@@ -12140,11 +12152,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0AEF0-F4C6-1C42-B02D-441C5BB51DB4}">
   <dimension ref="A1:R744"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E720" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B472" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H723" sqref="H723"/>
+      <selection pane="bottomRight" activeCell="H483" sqref="H483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31332,8 +31344,14 @@
       <c r="H424" s="4" t="s">
         <v>3475</v>
       </c>
+      <c r="I424" s="4" t="s">
+        <v>446</v>
+      </c>
       <c r="J424" s="1" t="s">
         <v>2051</v>
+      </c>
+      <c r="K424" s="4" t="s">
+        <v>686</v>
       </c>
       <c r="N424" s="5" t="s">
         <v>681</v>
@@ -34029,6 +34047,9 @@
       <c r="K478" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="L478" s="4" t="s">
+        <v>3721</v>
+      </c>
       <c r="M478" s="6">
         <v>41699</v>
       </c>
@@ -34082,6 +34103,9 @@
       <c r="K479" s="4" t="s">
         <v>449</v>
       </c>
+      <c r="L479" s="4" t="s">
+        <v>3722</v>
+      </c>
       <c r="M479" s="6">
         <v>41699</v>
       </c>
@@ -34135,6 +34159,9 @@
       <c r="K480" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="L480" s="4" t="s">
+        <v>3723</v>
+      </c>
       <c r="M480" s="6">
         <v>41334</v>
       </c>
@@ -34188,6 +34215,9 @@
       <c r="K481" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="L481" s="4" t="s">
+        <v>3721</v>
+      </c>
       <c r="M481" s="6">
         <v>41699</v>
       </c>
@@ -34241,6 +34271,9 @@
       <c r="K482" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="L482" s="4" t="s">
+        <v>3721</v>
+      </c>
       <c r="M482" s="6">
         <v>41699</v>
       </c>
@@ -34294,6 +34327,9 @@
       <c r="K483" s="4" t="s">
         <v>444</v>
       </c>
+      <c r="L483" s="4" t="s">
+        <v>3724</v>
+      </c>
       <c r="M483" s="6">
         <v>42064</v>
       </c>
@@ -34346,6 +34382,9 @@
       </c>
       <c r="K484" s="4" t="s">
         <v>392</v>
+      </c>
+      <c r="L484" s="4" t="s">
+        <v>3721</v>
       </c>
       <c r="M484" s="6">
         <v>41699</v>
@@ -46530,11 +46569,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F80976D-B2CC-C044-B81E-17234DE459FC}">
   <dimension ref="A1:S932"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
